--- a/encodingTime4ColsSmallSelectivity.xlsx
+++ b/encodingTime4ColsSmallSelectivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BB6C51-0A02-4045-AF60-45DF32A01DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4541147-887E-4911-8A40-6AE5959564AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="13845" windowHeight="11385" activeTab="3" xr2:uid="{6D55AD45-0430-4244-A608-755919E033D9}"/>
+    <workbookView xWindow="90" yWindow="0" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{6D55AD45-0430-4244-A608-755919E033D9}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
   <si>
     <t>RLE</t>
   </si>
@@ -75,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -126,6 +126,6326 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding performance per column</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F408-4271-9E7C-FECDC30D9244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9880000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F408-4271-9E7C-FECDC30D9244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F408-4271-9E7C-FECDC30D9244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9420000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F408-4271-9E7C-FECDC30D9244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_REDUCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>7.4669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.944000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F408-4271-9E7C-FECDC30D9244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>5.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7060000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F408-4271-9E7C-FECDC30D9244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>uniform!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>uniform!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>uniform!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9449999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F408-4271-9E7C-FECDC30D9244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="539408896"/>
+        <c:axId val="539404304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539408896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539404304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539404304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539408896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding performance per column</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDE2-4175-A5BD-FF3D0F1B81CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>5.633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5890000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDE2-4175-A5BD-FF3D0F1B81CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>4.2670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6319999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDE2-4175-A5BD-FF3D0F1B81CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>3.387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2750000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDE2-4175-A5BD-FF3D0F1B81CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_REDUCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>9.8279999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.305999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BDE2-4175-A5BD-FF3D0F1B81CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3280000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4340000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BDE2-4175-A5BD-FF3D0F1B81CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>normal!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>normal!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>normal!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7170000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BDE2-4175-A5BD-FF3D0F1B81CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="275747912"/>
+        <c:axId val="248959296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="275747912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="248959296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="248959296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275747912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding performance per column</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B9C-499E-A0C6-490DF11C8679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>6.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7990000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B9C-499E-A0C6-490DF11C8679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>6.6520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B9C-499E-A0C6-490DF11C8679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>5.3440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B9C-499E-A0C6-490DF11C8679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_REDUCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>16.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.598000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.135999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1B9C-499E-A0C6-490DF11C8679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>23.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1159999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1B9C-499E-A0C6-490DF11C8679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 1'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 1'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 1'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1B9C-499E-A0C6-490DF11C8679}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="276480056"/>
+        <c:axId val="547743696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="276480056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547743696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547743696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="276480056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="el-GR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Encoding performance per column</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C399-4DB6-B081-BA50651B1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIT_PACKING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8630000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C399-4DB6-B081-BA50651B1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7859999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C399-4DB6-B081-BA50651B1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROARING</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.5259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9769999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C399-4DB6-B081-BA50651B1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAP_REDUCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0.000">
+                  <c:v>18.259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.622999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C399-4DB6-B081-BA50651B1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARQUET</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.704000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C399-4DB6-B081-BA50651B1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exponential 2'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HYBRID_COLUMNAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'exponential 2'!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>first col</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second col</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third col</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth col</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exponential 2'!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0589999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C399-4DB6-B081-BA50651B1917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="277816960"/>
+        <c:axId val="547734840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="277816960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>column</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547734840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547734840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277816960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB9EE53-872E-42D2-B057-3C4ACD7FC3A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783382FF-8F09-47B6-B9EF-17F84E7CF7DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039DB11D-76AE-4197-87BD-3B494E49FCB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B42D1A9-6969-424A-A6C0-D228623D734A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,7 +6748,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +6849,15 @@
       <c r="B6" s="1">
         <v>7.4669999999999996</v>
       </c>
+      <c r="C6" s="2">
+        <v>7.28</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10.396000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10.944000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -566,6 +6895,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -574,7 +6904,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +7005,15 @@
       <c r="B6" s="1">
         <v>9.8279999999999994</v>
       </c>
+      <c r="C6" s="2">
+        <v>10.949</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11.305999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -712,6 +7051,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -720,7 +7060,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +7160,15 @@
       <c r="B6" s="1">
         <v>16.792000000000002</v>
       </c>
+      <c r="C6" s="2">
+        <v>10.598000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10.994</v>
+      </c>
+      <c r="E6" s="2">
+        <v>11.135999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -832,7 +7181,7 @@
         <v>3.3809999999999998</v>
       </c>
       <c r="D7" s="2">
-        <v>43.68</v>
+        <v>4.6509999999999998</v>
       </c>
       <c r="E7" s="2">
         <v>6.1159999999999997</v>
@@ -857,6 +7206,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -865,7 +7215,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,9 +7315,15 @@
       <c r="B6" s="2">
         <v>18.259</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1">
+        <v>10.522</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10.631</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10.622999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1005,5 +7361,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/encodingTime4ColsSmallSelectivity.xlsx
+++ b/encodingTime4ColsSmallSelectivity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4541147-887E-4911-8A40-6AE5959564AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1747CEA4-E5BF-4418-8700-6043B5BCEA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{6D55AD45-0430-4244-A608-755919E033D9}"/>
+    <workbookView minimized="1" xWindow="2070" yWindow="2070" windowWidth="7500" windowHeight="6000" xr2:uid="{6D55AD45-0430-4244-A608-755919E033D9}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="exponential 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t>RLE</t>
   </si>
@@ -163,7 +164,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per column</a:t>
+              <a:t>Encoding performance [uniform]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -271,13 +272,13 @@
                   <c:v>0.434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.498</c:v>
+                  <c:v>0.22700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.889</c:v>
+                  <c:v>0.29099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,13 +358,13 @@
                   <c:v>5.6440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8849999999999998</c:v>
+                  <c:v>5.6349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9569999999999999</c:v>
+                  <c:v>5.1020000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9880000000000004</c:v>
+                  <c:v>5.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -443,13 +444,13 @@
                   <c:v>5.0250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3959999999999999</c:v>
+                  <c:v>5.3179999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2229999999999999</c:v>
+                  <c:v>4.8090000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.407</c:v>
+                  <c:v>5.101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -529,13 +530,13 @@
                   <c:v>3.387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6779999999999999</c:v>
+                  <c:v>3.8010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.44</c:v>
+                  <c:v>2.984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9420000000000002</c:v>
+                  <c:v>2.8479999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,13 +616,13 @@
                   <c:v>7.4669999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.28</c:v>
+                  <c:v>7.6280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.396000000000001</c:v>
+                  <c:v>9.3620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.944000000000001</c:v>
+                  <c:v>9.1259999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,13 +702,13 @@
                   <c:v>5.2930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6740000000000004</c:v>
+                  <c:v>5.5389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.32</c:v>
+                  <c:v>5.766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7060000000000004</c:v>
+                  <c:v>5.7480000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,13 +794,13 @@
                   <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33300000000000002</c:v>
+                  <c:v>0.376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36199999999999999</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9449999999999998</c:v>
+                  <c:v>3.254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,8 +1160,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per column</a:t>
+              <a:t>Encoding performance</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> [normal]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1267,13 +1273,13 @@
                   <c:v>0.25700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.22700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85599999999999998</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.851</c:v>
+                  <c:v>0.29099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,13 +1359,13 @@
                   <c:v>5.633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7759999999999998</c:v>
+                  <c:v>4.6740000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8159999999999998</c:v>
+                  <c:v>5.1740000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5890000000000004</c:v>
+                  <c:v>4.6349999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,13 +1445,13 @@
                   <c:v>4.2670000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5369999999999999</c:v>
+                  <c:v>4.351</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3339999999999996</c:v>
+                  <c:v>4.117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6319999999999997</c:v>
+                  <c:v>5.0270000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,13 +1531,13 @@
                   <c:v>3.387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9159999999999999</c:v>
+                  <c:v>2.4729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1840000000000002</c:v>
+                  <c:v>2.331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2750000000000004</c:v>
+                  <c:v>2.4710000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,13 +1617,13 @@
                   <c:v>9.8279999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.949</c:v>
+                  <c:v>10.739000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.305999999999999</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.08</c:v>
+                  <c:v>9.0920000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,13 +1703,13 @@
                   <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3460000000000001</c:v>
+                  <c:v>0.32700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3280000000000003</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4340000000000002</c:v>
+                  <c:v>0.29299999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,13 +1795,13 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86399999999999999</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78200000000000003</c:v>
+                  <c:v>0.26400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7170000000000001</c:v>
+                  <c:v>0.27800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,8 +2161,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per column</a:t>
+              <a:t>Encoding performance [exponential</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2263,13 +2274,13 @@
                   <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.873</c:v>
+                  <c:v>0.312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92700000000000005</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0049999999999999</c:v>
+                  <c:v>0.28399999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2349,13 +2360,13 @@
                   <c:v>6.8680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.33</c:v>
+                  <c:v>6.4950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7990000000000004</c:v>
+                  <c:v>7.0579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7990000000000004</c:v>
+                  <c:v>6.2539999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,13 +2446,13 @@
                   <c:v>6.6520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4429999999999996</c:v>
+                  <c:v>7.5780000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0060000000000002</c:v>
+                  <c:v>6.6669999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.367</c:v>
+                  <c:v>7.5979999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,13 +2532,13 @@
                   <c:v>5.3440000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.786</c:v>
+                  <c:v>5.3959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5009999999999999</c:v>
+                  <c:v>5.2869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.64</c:v>
+                  <c:v>5.2469999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2607,13 +2618,13 @@
                   <c:v>16.792000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.598000000000001</c:v>
+                  <c:v>18.632999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.994</c:v>
+                  <c:v>18.878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.135999999999999</c:v>
+                  <c:v>18.661000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,13 +2704,13 @@
                   <c:v>23.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3809999999999998</c:v>
+                  <c:v>22.681000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6509999999999998</c:v>
+                  <c:v>23.018000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1159999999999997</c:v>
+                  <c:v>24.408999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,13 +2796,13 @@
                   <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96499999999999997</c:v>
+                  <c:v>0.314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78500000000000003</c:v>
+                  <c:v>0.34699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90700000000000003</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,8 +3162,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per column</a:t>
+              <a:t>Encoding performance [exponential</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3259,13 +3275,13 @@
                   <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86399999999999999</c:v>
+                  <c:v>0.64300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78800000000000003</c:v>
+                  <c:v>0.45700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95899999999999996</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3345,13 +3361,13 @@
                   <c:v>6.8630000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0430000000000001</c:v>
+                  <c:v>6.6660000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1509999999999998</c:v>
+                  <c:v>7.4160000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.79</c:v>
+                  <c:v>6.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3431,13 +3447,13 @@
                   <c:v>6.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4729999999999999</c:v>
+                  <c:v>6.5010000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.218</c:v>
+                  <c:v>6.5750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7859999999999996</c:v>
+                  <c:v>6.4580000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,13 +3533,13 @@
                   <c:v>6.5259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.383</c:v>
+                  <c:v>6.2709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.67</c:v>
+                  <c:v>6.1109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9769999999999999</c:v>
+                  <c:v>5.8579999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3603,13 +3619,13 @@
                   <c:v>18.259</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.522</c:v>
+                  <c:v>19.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.631</c:v>
+                  <c:v>15.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.622999999999999</c:v>
+                  <c:v>16.762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3689,13 +3705,13 @@
                   <c:v>22.704000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1739999999999999</c:v>
+                  <c:v>21.768999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1020000000000003</c:v>
+                  <c:v>25.140999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6</c:v>
+                  <c:v>24.556999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,13 +3797,13 @@
                   <c:v>0.26200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85299999999999998</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3819999999999999</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0589999999999999</c:v>
+                  <c:v>0.32100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6747,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACB89A4-C289-4450-A97C-8028D2CF65A7}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6782,13 +6798,13 @@
         <v>0.434</v>
       </c>
       <c r="C2" s="1">
-        <v>0.498</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>0.42</v>
+        <v>0.216</v>
       </c>
       <c r="E2" s="1">
-        <v>1.889</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6799,13 +6815,13 @@
         <v>5.6440000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>5.8849999999999998</v>
+        <v>5.6349999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>5.9569999999999999</v>
+        <v>5.1020000000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>5.9880000000000004</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6816,13 +6832,13 @@
         <v>5.0250000000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>5.3959999999999999</v>
+        <v>5.3179999999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>5.2229999999999999</v>
+        <v>4.8090000000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>5.407</v>
+        <v>5.101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6833,13 +6849,13 @@
         <v>3.387</v>
       </c>
       <c r="C5" s="1">
-        <v>3.6779999999999999</v>
+        <v>3.8010000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>3.44</v>
+        <v>2.984</v>
       </c>
       <c r="E5" s="1">
-        <v>2.9420000000000002</v>
+        <v>2.8479999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6850,13 +6866,13 @@
         <v>7.4669999999999996</v>
       </c>
       <c r="C6" s="2">
-        <v>7.28</v>
+        <v>7.6280000000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>10.396000000000001</v>
+        <v>9.3620000000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>10.944000000000001</v>
+        <v>9.1259999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6867,13 +6883,13 @@
         <v>5.2930000000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>4.6740000000000004</v>
+        <v>5.5389999999999997</v>
       </c>
       <c r="D7" s="2">
-        <v>5.32</v>
+        <v>5.766</v>
       </c>
       <c r="E7" s="2">
-        <v>7.7060000000000004</v>
+        <v>5.7480000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6884,13 +6900,13 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.33300000000000002</v>
+        <v>0.376</v>
       </c>
       <c r="D8" s="1">
-        <v>0.36199999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>3.9449999999999998</v>
+        <v>3.254</v>
       </c>
     </row>
   </sheetData>
@@ -6904,7 +6920,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6938,13 +6954,13 @@
         <v>0.25700000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>0.39</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>0.85599999999999998</v>
+        <v>0.216</v>
       </c>
       <c r="E2" s="1">
-        <v>1.851</v>
+        <v>0.29099999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6955,13 +6971,13 @@
         <v>5.633</v>
       </c>
       <c r="C3" s="2">
-        <v>5.7759999999999998</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="D3" s="2">
-        <v>5.8159999999999998</v>
+        <v>5.1740000000000004</v>
       </c>
       <c r="E3" s="2">
-        <v>6.5890000000000004</v>
+        <v>4.6349999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6972,13 +6988,13 @@
         <v>4.2670000000000003</v>
       </c>
       <c r="C4" s="2">
-        <v>5.5369999999999999</v>
+        <v>4.351</v>
       </c>
       <c r="D4" s="2">
-        <v>5.3339999999999996</v>
+        <v>4.117</v>
       </c>
       <c r="E4" s="2">
-        <v>5.6319999999999997</v>
+        <v>5.0270000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6989,13 +7005,13 @@
         <v>3.387</v>
       </c>
       <c r="C5" s="2">
-        <v>2.9159999999999999</v>
+        <v>2.4729999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>3.1840000000000002</v>
+        <v>2.331</v>
       </c>
       <c r="E5" s="2">
-        <v>4.2750000000000004</v>
+        <v>2.4710000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7006,13 +7022,13 @@
         <v>9.8279999999999994</v>
       </c>
       <c r="C6" s="2">
-        <v>10.949</v>
+        <v>10.739000000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>11.305999999999999</v>
+        <v>10.44</v>
       </c>
       <c r="E6" s="2">
-        <v>10.08</v>
+        <v>9.0920000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7023,13 +7039,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>3.3460000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>5.3280000000000003</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>5.4340000000000002</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7040,13 +7056,13 @@
         <v>0.26</v>
       </c>
       <c r="C8" s="1">
-        <v>0.86399999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="D8" s="1">
-        <v>0.78200000000000003</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>3.7170000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -7060,7 +7076,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7093,13 +7109,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>0.873</v>
+        <v>0.312</v>
       </c>
       <c r="D2" s="2">
-        <v>0.92700000000000005</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E2" s="2">
-        <v>1.0049999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7110,13 +7126,13 @@
         <v>6.8680000000000003</v>
       </c>
       <c r="C3" s="2">
-        <v>6.33</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>5.7990000000000004</v>
+        <v>7.0579999999999998</v>
       </c>
       <c r="E3" s="2">
-        <v>5.7990000000000004</v>
+        <v>6.2539999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7127,13 +7143,13 @@
         <v>6.6520000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>5.4429999999999996</v>
+        <v>7.5780000000000003</v>
       </c>
       <c r="D4" s="2">
-        <v>6.0060000000000002</v>
+        <v>6.6669999999999998</v>
       </c>
       <c r="E4" s="2">
-        <v>5.367</v>
+        <v>7.5979999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7144,13 +7160,13 @@
         <v>5.3440000000000003</v>
       </c>
       <c r="C5" s="2">
-        <v>3.786</v>
+        <v>5.3959999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>3.5009999999999999</v>
+        <v>5.2869999999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>3.64</v>
+        <v>5.2469999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7161,13 +7177,13 @@
         <v>16.792000000000002</v>
       </c>
       <c r="C6" s="2">
-        <v>10.598000000000001</v>
+        <v>18.632999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>10.994</v>
+        <v>18.878</v>
       </c>
       <c r="E6" s="2">
-        <v>11.135999999999999</v>
+        <v>18.661000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7178,13 +7194,13 @@
         <v>23.36</v>
       </c>
       <c r="C7" s="2">
-        <v>3.3809999999999998</v>
+        <v>22.681000000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>4.6509999999999998</v>
+        <v>23.018000000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>6.1159999999999997</v>
+        <v>24.408999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7195,13 +7211,13 @@
         <v>0.192</v>
       </c>
       <c r="C8">
-        <v>0.96499999999999997</v>
+        <v>0.314</v>
       </c>
       <c r="D8">
-        <v>0.78500000000000003</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="E8">
-        <v>0.90700000000000003</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -7214,8 +7230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2FBF94-9C5B-44F2-8617-42B5969A8A1E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,13 +7264,13 @@
         <v>0.245</v>
       </c>
       <c r="C2">
-        <v>0.86399999999999999</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D2">
-        <v>0.78800000000000003</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="E2">
-        <v>0.95899999999999996</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7265,13 +7281,13 @@
         <v>6.8630000000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>6.0430000000000001</v>
+        <v>6.6660000000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>6.1509999999999998</v>
+        <v>7.4160000000000004</v>
       </c>
       <c r="E3" s="1">
-        <v>6.79</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7282,13 +7298,13 @@
         <v>6.47</v>
       </c>
       <c r="C4" s="1">
-        <v>6.4729999999999999</v>
+        <v>6.5010000000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>6.218</v>
+        <v>6.5750000000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>5.7859999999999996</v>
+        <v>6.4580000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7299,13 +7315,13 @@
         <v>6.5259999999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>3.383</v>
+        <v>6.2709999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>3.67</v>
+        <v>6.1109999999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>3.9769999999999999</v>
+        <v>5.8579999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7316,13 +7332,13 @@
         <v>18.259</v>
       </c>
       <c r="C6" s="1">
-        <v>10.522</v>
+        <v>19.11</v>
       </c>
       <c r="D6" s="1">
-        <v>10.631</v>
+        <v>15.22</v>
       </c>
       <c r="E6" s="1">
-        <v>10.622999999999999</v>
+        <v>16.762</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7333,13 +7349,13 @@
         <v>22.704000000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>3.1739999999999999</v>
+        <v>21.768999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>4.1020000000000003</v>
+        <v>25.140999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>6.6</v>
+        <v>24.556999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7350,13 +7366,13 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.85299999999999998</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>1.3819999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>1.0589999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
     </row>
   </sheetData>
